--- a/tools/sikker-digital/de-tekniske-minimumskrav.xlsx
+++ b/tools/sikker-digital/de-tekniske-minimumskrav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/sikker-digital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471498D2-C981-F343-9FFC-5D5E6602A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EEB86F-2AE4-E247-9D5C-84208D6C8B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-28140" windowWidth="50880" windowHeight="27980" activeTab="1" xr2:uid="{7DE69456-E47D-AD4E-B68F-83F903807B7B}"/>
+    <workbookView xWindow="4020" yWindow="-28140" windowWidth="50880" windowHeight="27980" xr2:uid="{7DE69456-E47D-AD4E-B68F-83F903807B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
   <si>
     <t>assessable</t>
   </si>
@@ -511,12 +511,16 @@
   <si>
     <t>reqs</t>
   </si>
+  <si>
+    <t>DE TEKNISKE MINIMUMSKRAV FOR STATSLIGE MYNDIGHEDER
+https://www.sikkerdigital.dk/myndighed/tekniske-tiltag/tekniske-minimumskrav/tekniske-minimumskrav-2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +593,16 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -617,34 +631,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -652,26 +645,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -683,6 +664,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1020,14 +1019,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1130E956-DD2D-4640-8F41-A2F172A5B794}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="83.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1035,7 +1034,7 @@
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1043,7 +1042,7 @@
       <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1050,7 @@
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="9">
         <v>45566</v>
       </c>
     </row>
@@ -1059,7 +1058,7 @@
       <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1067,31 +1066,31 @@
       <c r="A5" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>134</v>
+      <c r="B7" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1099,7 +1098,7 @@
       <c r="A9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1107,7 +1106,7 @@
       <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1115,7 +1114,7 @@
       <c r="A11" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1123,7 +1122,7 @@
       <c r="A12" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1131,23 +1130,23 @@
       <c r="A13" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>134</v>
+      <c r="B14" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C15" t="s">
@@ -1164,758 +1163,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C5835-7591-224D-A92E-894EB8104B67}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="75.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.83203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="12.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="75.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.83203125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="A2" s="4"/>
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17">
         <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17">
         <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="17">
         <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17">
         <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="17">
         <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="17">
         <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="17">
         <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>15</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17">
         <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="17">
         <v>1</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="17">
         <v>2</v>
       </c>
       <c r="C25" s="1">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="17">
         <v>2</v>
       </c>
       <c r="C26" s="1">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="13">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="17">
         <v>2</v>
       </c>
       <c r="C27" s="1">
         <v>19</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="A28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="17">
         <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>20</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="17">
         <v>2</v>
       </c>
       <c r="C29" s="1">
         <v>21</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="13">
+      <c r="A30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="17">
         <v>2</v>
       </c>
       <c r="C30" s="1">
         <v>22</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="13">
+      <c r="A31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="17">
         <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>23</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15">
+    <row r="32" spans="1:6" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="17">
         <v>1</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="A33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="17">
         <v>2</v>
       </c>
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="17">
         <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="17">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="13">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="17">
         <v>2</v>
       </c>
       <c r="C36" s="1">
         <v>26</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="13">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="17">
         <v>2</v>
       </c>
       <c r="C37" s="1">
         <v>27</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="13">
+      <c r="A38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="17">
         <v>2</v>
       </c>
       <c r="C38" s="1">
         <v>28</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="17">
         <v>1</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="13">
+      <c r="A40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="17">
         <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>29</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>96</v>
       </c>
     </row>
